--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5244E4-C86A-4771-ACF3-5A425F9695C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952185A-7542-4FC8-8B1A-99DE512D2C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -100,12 +100,31 @@
   <si>
     <t>Curso Network Excentials Intecap</t>
   </si>
+  <si>
+    <t xml:space="preserve">Gastos </t>
+  </si>
+  <si>
+    <t>Retiro Rabinal y Pasaje</t>
+  </si>
+  <si>
+    <t>Gasolina Moto</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>No se que</t>
+  </si>
+  <si>
+    <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000.00000000…..........................................................................................................................2222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222233...................................................................................................................................................................330000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;Q&quot;#,##0;[Red]\-&quot;Q&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;Q&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -159,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,11 +201,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -210,7 +240,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -218,6 +247,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:X92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,25 +578,25 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="1"/>
@@ -584,13 +617,13 @@
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>2110</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>SUM(B4:B5)</f>
         <v>2395</v>
       </c>
@@ -622,7 +655,7 @@
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>285</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -826,8 +859,12 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -877,8 +914,12 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="15">
+        <v>300</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
@@ -902,8 +943,12 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6">
+        <v>90</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
@@ -927,8 +972,12 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6">
+        <v>80</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
@@ -952,20 +1001,12 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="15">
-        <f>SUM(E4:E15)</f>
-        <v>1620</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="14">
-        <f>D4-E16</f>
-        <v>775</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="5"/>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="1"/>
@@ -985,8 +1026,12 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="6">
+        <v>55</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
@@ -1010,11 +1055,19 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="14">
+        <f>SUM(E4:E17)</f>
+        <v>2245</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="13">
+        <f>D4-E18</f>
+        <v>150</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1036,8 +1089,8 @@
         <v>10</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="14">
-        <f>SUM(E16:H16)</f>
+      <c r="D19" s="13">
+        <f>SUM(E18:H18)</f>
         <v>2395</v>
       </c>
       <c r="E19" s="6"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952185A-7542-4FC8-8B1A-99DE512D2C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C356F7B1-F3B0-4E32-A532-77E1D28937B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Septiembre" sheetId="1" r:id="rId1"/>
+    <sheet name="Octubre" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -117,6 +118,27 @@
   </si>
   <si>
     <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000.00000000…..........................................................................................................................2222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222233...................................................................................................................................................................330000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Tortillas</t>
+  </si>
+  <si>
+    <t>Verduras</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>Super (galletas, pasta)</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Cemaco (galletas y coca)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +271,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:X92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2942,4 +2964,2425 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4178EBF9-3FF0-4226-BA71-7DF463DFD99B}">
+  <dimension ref="B2:X93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="6" max="6" width="34.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13">
+        <v>2022.22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14">
+        <f>SUM(B4:B5)</f>
+        <v>2172.2200000000003</v>
+      </c>
+      <c r="E4" s="8">
+        <v>200</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="9">
+        <v>44839</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13">
+        <v>150</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="9">
+        <v>44839</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9">
+        <v>44839</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="9">
+        <v>44839</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="9">
+        <v>44840</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7">
+        <v>250</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9">
+        <v>44840</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7">
+        <v>70</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="9">
+        <v>44840</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="14">
+        <f>SUM(E4:E18)</f>
+        <v>640</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="13">
+        <f>D4-E19</f>
+        <v>1532.2200000000003</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="13">
+        <f>SUM(E19:H19)</f>
+        <v>2172.2200000000003</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>1533.03</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C356F7B1-F3B0-4E32-A532-77E1D28937B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99567689-5693-453D-9D48-01BC334F0C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -140,6 +140,27 @@
   <si>
     <t>Cemaco (galletas y coca)</t>
   </si>
+  <si>
+    <t>Piezas Pollo</t>
+  </si>
+  <si>
+    <t>Amburguesa Macdonals</t>
+  </si>
+  <si>
+    <t>Super octubre</t>
+  </si>
+  <si>
+    <t>Gastos personales</t>
+  </si>
+  <si>
+    <t>Sueldo quincenal 1</t>
+  </si>
+  <si>
+    <t>Playera Naruto Uzumaky</t>
+  </si>
+  <si>
+    <t>Para tortillas pendientes</t>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -274,6 +295,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2968,10 +2990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4178EBF9-3FF0-4226-BA71-7DF463DFD99B}">
-  <dimension ref="B2:X93"/>
+  <dimension ref="B2:X96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2984,6 +3006,7 @@
     <col min="6" max="6" width="34.81640625" customWidth="1"/>
     <col min="7" max="7" width="11.08984375" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.35">
@@ -3057,7 +3080,7 @@
         <v>2022.22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D4" s="14">
         <f>SUM(B4:B5)</f>
@@ -3126,7 +3149,9 @@
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
+      <c r="B6" s="13">
+        <v>2110</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
       <c r="E6" s="7">
@@ -3285,10 +3310,14 @@
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="9">
+        <v>44842</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3307,15 +3336,19 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="7">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="9">
+        <v>44843</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -3334,15 +3367,19 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="9">
+        <v>44843</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -3361,15 +3398,19 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="7">
+        <v>50</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9">
+        <v>44844</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -3391,12 +3432,16 @@
     <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
+        <v>40</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="9">
+        <v>44846</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -3418,12 +3463,16 @@
     <row r="16" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
+        <v>60</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="9">
+        <v>44846</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -3445,11 +3494,19 @@
     <row r="17" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6">
+        <v>30</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="9">
+        <v>44847</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="1"/>
@@ -3468,12 +3525,16 @@
     <row r="18" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="9">
+        <v>44848</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -3496,19 +3557,17 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="14">
-        <f>SUM(E4:E18)</f>
-        <v>640</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="13">
-        <f>D4-E19</f>
-        <v>1532.2200000000003</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E19" s="6">
+        <v>100</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9">
+        <v>44849</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -3526,20 +3585,18 @@
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="13">
-        <f>SUM(E19:H19)</f>
-        <v>2172.2200000000003</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>50</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="9">
+        <v>44849</v>
+      </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="1"/>
@@ -3556,17 +3613,17 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -3581,17 +3638,25 @@
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="14">
+        <f>SUM(E4:E21)</f>
+        <v>1248</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="13">
+        <f>D4-E22</f>
+        <v>924.22000000000025</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -3606,19 +3671,22 @@
       <c r="X22" s="1"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1">
-        <v>1533.03</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="13">
+        <f>SUM(E22:H22)</f>
+        <v>2172.2200000000003</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -3689,7 +3757,9 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>1533.03</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -5382,7 +5452,83 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99567689-5693-453D-9D48-01BC334F0C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A1DC6C-316D-45EB-B60F-A12D4EE5F392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -153,13 +153,46 @@
     <t>Gastos personales</t>
   </si>
   <si>
-    <t>Sueldo quincenal 1</t>
-  </si>
-  <si>
     <t>Playera Naruto Uzumaky</t>
   </si>
   <si>
     <t>Para tortillas pendientes</t>
+  </si>
+  <si>
+    <t>Pago por internet en tigo</t>
+  </si>
+  <si>
+    <t>Llanta para moto</t>
+  </si>
+  <si>
+    <t>Regalo Yéremi</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Deuda con Freddy</t>
+  </si>
+  <si>
+    <t>2da-15na septiembre</t>
+  </si>
+  <si>
+    <t>1ra-15na octubre</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>Gasolina gastos</t>
+  </si>
+  <si>
+    <t>Gasolina viaje a casa</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>SALDO INICIAL</t>
   </si>
 </sst>
 </file>
@@ -170,7 +203,7 @@
     <numFmt numFmtId="6" formatCode="&quot;Q&quot;#,##0;[Red]\-&quot;Q&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;Q&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +234,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -259,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -295,7 +335,8 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2990,10 +3031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4178EBF9-3FF0-4226-BA71-7DF463DFD99B}">
-  <dimension ref="B2:X96"/>
+  <dimension ref="B2:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3001,7 +3042,7 @@
     <col min="1" max="1" width="3.1796875" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" customWidth="1"/>
     <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
     <col min="5" max="5" width="18.1796875" customWidth="1"/>
     <col min="6" max="6" width="34.81640625" customWidth="1"/>
     <col min="7" max="7" width="11.08984375" customWidth="1"/>
@@ -3044,7 +3085,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -3080,11 +3121,11 @@
         <v>2022.22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D4" s="14">
-        <f>SUM(B4:B5)</f>
-        <v>2172.2200000000003</v>
+        <f>SUM(B4:B9)</f>
+        <v>4282.22</v>
       </c>
       <c r="E4" s="8">
         <v>200</v>
@@ -3152,7 +3193,9 @@
       <c r="B6" s="13">
         <v>2110</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7">
         <v>50</v>
@@ -3197,7 +3240,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="5"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3530,7 +3573,7 @@
         <v>150</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="9">
         <v>44848</v>
@@ -3561,7 +3604,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="9">
         <v>44849</v>
@@ -3616,9 +3659,15 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="6">
+        <v>540</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="9">
+        <v>44852</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -3641,19 +3690,17 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="14">
-        <f>SUM(E4:E21)</f>
-        <v>1248</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="13">
-        <f>D4-E22</f>
-        <v>924.22000000000025</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E22" s="6">
+        <v>100</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="9">
+        <v>44852</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -3671,17 +3718,18 @@
       <c r="X22" s="1"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="13">
-        <f>SUM(E22:H22)</f>
-        <v>2172.2200000000003</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>50</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="9">
+        <v>44852</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -3701,17 +3749,23 @@
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>200</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="9">
+        <v>44852</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3726,17 +3780,23 @@
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>60</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="9">
+        <v>44853</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -3751,19 +3811,23 @@
       <c r="X25" s="1"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1">
-        <v>1533.03</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>100</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="9">
+        <v>44854</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3778,17 +3842,23 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>35</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="9">
+        <v>44855</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -3803,17 +3873,23 @@
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>30</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="9">
+        <v>44859</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -3828,17 +3904,23 @@
       <c r="X28" s="1"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -3853,17 +3935,17 @@
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -3878,17 +3960,25 @@
       <c r="X30" s="1"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="14">
+        <f>SUM(E4:E30)</f>
+        <v>2363</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="13">
+        <f>D4-E31</f>
+        <v>1919.2200000000003</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3903,17 +3993,22 @@
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="B32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="13">
+        <f>SUM(E31:H31)</f>
+        <v>4282.22</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -3984,7 +4079,9 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>1533.03</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -5527,6 +5624,231 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A1DC6C-316D-45EB-B60F-A12D4EE5F392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF7D39-539A-4B0C-BF1E-FAEC06ED3729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Septiembre" sheetId="1" r:id="rId1"/>
     <sheet name="Octubre" sheetId="3" r:id="rId2"/>
+    <sheet name="Noviembre" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -189,10 +190,58 @@
     <t>Gasolina viaje a casa</t>
   </si>
   <si>
+    <t>SALDO INICIAL</t>
+  </si>
+  <si>
+    <t>Don Calzone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Desayuno</t>
+  </si>
+  <si>
+    <t>Crea nivea</t>
+  </si>
+  <si>
+    <t>Uso de tarjeta</t>
+  </si>
+  <si>
+    <t>No se sabe</t>
+  </si>
+  <si>
+    <t>2da-15na octubre</t>
+  </si>
+  <si>
+    <t>1ra-15na noviembre</t>
+  </si>
+  <si>
     <t>pendiente</t>
   </si>
   <si>
-    <t>SALDO INICIAL</t>
+    <t>xxxxx</t>
+  </si>
+  <si>
+    <t>Pago moto Suzuki</t>
+  </si>
+  <si>
+    <t>Reparación Moto Suzuki</t>
+  </si>
+  <si>
+    <t>Crema Nivea</t>
+  </si>
+  <si>
+    <t>Pedido en Temu</t>
+  </si>
+  <si>
+    <t>Burger King desayuno</t>
+  </si>
+  <si>
+    <t>Pendiente en que</t>
   </si>
 </sst>
 </file>
@@ -247,7 +296,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +309,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -295,11 +350,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -337,6 +418,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3031,10 +3120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4178EBF9-3FF0-4226-BA71-7DF463DFD99B}">
-  <dimension ref="B2:X105"/>
+  <dimension ref="B2:X114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3047,7 +3136,7 @@
     <col min="6" max="6" width="34.81640625" customWidth="1"/>
     <col min="7" max="7" width="11.08984375" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.35">
@@ -3085,7 +3174,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -3908,13 +3997,13 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>50</v>
+      <c r="G29" s="9">
+        <v>44863</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="5"/>
@@ -3938,9 +4027,15 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="9"/>
+      <c r="E30" s="6">
+        <v>20</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="9">
+        <v>44863</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -3963,19 +4058,17 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="14">
-        <f>SUM(E4:E30)</f>
-        <v>2363</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="13">
-        <f>D4-E31</f>
-        <v>1919.2200000000003</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E31" s="6">
+        <v>20</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="9">
+        <v>44864</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -3993,22 +4086,3052 @@
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
         <v>10</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="13">
-        <f>SUM(E31:H31)</f>
-        <v>4282.22</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="9">
+        <v>44865</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="19">
+        <v>50</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="9">
+        <v>44865</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="19">
+        <v>30</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="9">
+        <v>45964</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
+        <v>200</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="9">
+        <v>45964</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
+        <v>150</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="9">
+        <v>45964</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <v>15</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="9">
+        <v>45964</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="14">
+        <f>SUM(E4:E39)</f>
+        <v>3052</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="22">
+        <f>D4-E40</f>
+        <v>1230.2200000000003</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="23"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="13">
+        <f>SUM(E40:H40)</f>
+        <v>4282.22</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1">
+        <v>1533.03</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+    </row>
+    <row r="113" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+    </row>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1400DD-AFE1-43E8-B2CF-C766C3744FCE}">
+  <dimension ref="B2:X94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="6" max="6" width="34.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13">
+        <v>2022.22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="14">
+        <f>SUM(B4:B7)</f>
+        <v>3254.92</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="9">
+        <v>44869</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13">
+        <v>1232.7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7">
+        <v>25</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="9">
+        <v>44869</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9">
+        <v>44870</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="9">
+        <v>44870</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>212</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="9">
+        <v>44870</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="9">
+        <v>44871</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>47</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="9">
+        <v>44873</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="14">
+        <f>SUM(E4:E19)</f>
+        <v>2881</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="22">
+        <f>D4-E20</f>
+        <v>373.92000000000007</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="13">
+        <f>SUM(E20:H20)</f>
+        <v>3254.92</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <v>1533.03</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -4079,9 +7202,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1">
-        <v>1533.03</v>
-      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -5574,281 +8695,6 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="X95" s="1"/>
-    </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
-    </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
-    </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
-    </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-    </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-    </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
-    </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
-    </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-      <c r="X103" s="1"/>
-    </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
-    </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-      <c r="X105" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF7D39-539A-4B0C-BF1E-FAEC06ED3729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2A7876-498A-45DD-BBEF-32E18D1432CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Pendiente en que</t>
+  </si>
+  <si>
+    <t>Gel, Bombilla, Galleta - Super</t>
+  </si>
+  <si>
+    <t>Gastos personales (45 Verduras)</t>
   </si>
 </sst>
 </file>
@@ -6228,7 +6234,7 @@
   <dimension ref="B2:X94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6547,12 +6553,14 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="G11" s="9">
+        <v>44874</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -6576,12 +6584,14 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="G12" s="9">
+        <v>44875</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -6605,12 +6615,14 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="G13" s="9">
+        <v>44875</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -6809,13 +6821,13 @@
       <c r="D20" s="6"/>
       <c r="E20" s="14">
         <f>SUM(E4:E19)</f>
-        <v>2881</v>
+        <v>3178</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="22">
         <f>D4-E20</f>
-        <v>373.92000000000007</v>
+        <v>76.920000000000073</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>15</v>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2A7876-498A-45DD-BBEF-32E18D1432CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E145F4-11FB-4167-B884-D62B6126DAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -220,9 +220,6 @@
     <t>1ra-15na noviembre</t>
   </si>
   <si>
-    <t>pendiente</t>
-  </si>
-  <si>
     <t>xxxxx</t>
   </si>
   <si>
@@ -248,6 +245,21 @@
   </si>
   <si>
     <t>Gastos personales (45 Verduras)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastos personales </t>
+  </si>
+  <si>
+    <t>Gasolina (Viaje a Casa)</t>
+  </si>
+  <si>
+    <t>Gasolina de la semana</t>
+  </si>
+  <si>
+    <t>No recuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Último pago moto Suzuky </t>
   </si>
 </sst>
 </file>
@@ -6231,10 +6243,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1400DD-AFE1-43E8-B2CF-C766C3744FCE}">
-  <dimension ref="B2:X94"/>
+  <dimension ref="B2:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6325,13 +6337,13 @@
       </c>
       <c r="D4" s="14">
         <f>SUM(B4:B7)</f>
-        <v>3254.92</v>
+        <v>5364.99</v>
       </c>
       <c r="E4" s="8">
         <v>2500</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="9">
         <v>44869</v>
@@ -6366,7 +6378,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="9">
         <v>44869</v>
@@ -6390,8 +6402,8 @@
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
-        <v>60</v>
+      <c r="B6" s="24">
+        <v>2110.0700000000002</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>59</v>
@@ -6432,7 +6444,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="9">
         <v>44870</v>
@@ -6463,7 +6475,7 @@
         <v>212</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="9">
         <v>44870</v>
@@ -6494,7 +6506,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="9">
         <v>44871</v>
@@ -6525,7 +6537,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="9">
         <v>44873</v>
@@ -6556,7 +6568,7 @@
         <v>46</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="9">
         <v>44874</v>
@@ -6587,7 +6599,7 @@
         <v>211</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="9">
         <v>44875</v>
@@ -6646,12 +6658,14 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="G14" s="9">
+        <v>44876</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -6674,13 +6688,15 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>0</v>
+      <c r="E15" s="19">
+        <v>50</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="G15" s="9">
+        <v>44880</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -6703,13 +6719,15 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>0</v>
+      <c r="E16" s="19">
+        <v>50</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="G16" s="9">
+        <v>44882</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -6733,12 +6751,14 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="G17" s="9">
+        <v>44882</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -6762,12 +6782,14 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="G18" s="9">
+        <v>44883</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -6791,13 +6813,15 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="G19" s="9">
+        <v>44883</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -6819,20 +6843,18 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="14">
-        <f>SUM(E4:E19)</f>
-        <v>3178</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="22">
-        <f>D4-E20</f>
-        <v>76.920000000000073</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="23"/>
+      <c r="E20" s="6">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="9">
+        <v>44883</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="1"/>
@@ -6849,18 +6871,19 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="13">
-        <f>SUM(E20:H20)</f>
-        <v>3254.92</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="21"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>560</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="9">
+        <v>44883</v>
+      </c>
+      <c r="H21" s="20"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -6879,17 +6902,21 @@
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -6904,17 +6931,25 @@
       <c r="X22" s="1"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="14">
+        <f>SUM(E4:E22)</f>
+        <v>4228</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="22">
+        <f>D4-E23</f>
+        <v>1136.9899999999998</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -6929,21 +6964,22 @@
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1">
-        <v>1533.03</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="B24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="13">
+        <f>SUM(E23:H23)</f>
+        <v>5364.99</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -7011,10 +7047,14 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>1533.03</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -8707,6 +8747,81 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E145F4-11FB-4167-B884-D62B6126DAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A149CB17-D84B-40CB-A046-0123FD88B5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -220,9 +220,6 @@
     <t>1ra-15na noviembre</t>
   </si>
   <si>
-    <t>xxxxx</t>
-  </si>
-  <si>
     <t>Pago moto Suzuki</t>
   </si>
   <si>
@@ -260,6 +257,12 @@
   </si>
   <si>
     <t xml:space="preserve">Último pago moto Suzuky </t>
+  </si>
+  <si>
+    <t>18/11/205</t>
+  </si>
+  <si>
+    <t>Pago de servicio tigo</t>
   </si>
 </sst>
 </file>
@@ -6243,10 +6246,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1400DD-AFE1-43E8-B2CF-C766C3744FCE}">
-  <dimension ref="B2:X97"/>
+  <dimension ref="B2:X98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6343,10 +6346,10 @@
         <v>2500</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="9">
-        <v>44869</v>
+        <v>45965</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="5"/>
@@ -6378,10 +6381,10 @@
         <v>25</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="9">
-        <v>44869</v>
+        <v>45965</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="5"/>
@@ -6416,7 +6419,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="9">
-        <v>44870</v>
+        <v>45966</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
@@ -6444,10 +6447,10 @@
         <v>27</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="9">
-        <v>44870</v>
+        <v>45966</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
@@ -6475,10 +6478,10 @@
         <v>212</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="9">
-        <v>44870</v>
+        <v>45966</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5"/>
@@ -6506,10 +6509,10 @@
         <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="9">
-        <v>44871</v>
+        <v>45967</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
@@ -6537,10 +6540,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="9">
-        <v>44873</v>
+        <v>45969</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5"/>
@@ -6568,10 +6571,10 @@
         <v>46</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="9">
-        <v>44874</v>
+        <v>45970</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5"/>
@@ -6599,10 +6602,10 @@
         <v>211</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="9">
-        <v>44875</v>
+        <v>45971</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
@@ -6633,7 +6636,7 @@
         <v>52</v>
       </c>
       <c r="G13" s="9">
-        <v>44875</v>
+        <v>45971</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
@@ -6661,10 +6664,10 @@
         <v>30</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="9">
-        <v>44876</v>
+        <v>45972</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
@@ -6692,10 +6695,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="9">
-        <v>44880</v>
+        <v>45976</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
@@ -6723,10 +6726,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="9">
-        <v>44882</v>
+        <v>45978</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
@@ -6757,7 +6760,7 @@
         <v>52</v>
       </c>
       <c r="G17" s="9">
-        <v>44882</v>
+        <v>45978</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
@@ -6788,7 +6791,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="9">
-        <v>44883</v>
+        <v>45979</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
@@ -6816,10 +6819,10 @@
         <v>200</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="9">
-        <v>44883</v>
+        <v>68</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
@@ -6847,10 +6850,10 @@
         <v>20</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="9">
-        <v>44883</v>
+        <v>45979</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
@@ -6878,10 +6881,10 @@
         <v>560</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="9">
-        <v>44883</v>
+        <v>45979</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="5"/>
@@ -6906,12 +6909,14 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="G22" s="9">
+        <v>45982</v>
+      </c>
       <c r="H22" s="20"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -6934,20 +6939,18 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="14">
-        <f>SUM(E4:E22)</f>
-        <v>4228</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="22">
-        <f>D4-E23</f>
-        <v>1136.9899999999998</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="23"/>
+      <c r="E23" s="6">
+        <v>144</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="9">
+        <v>45982</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="1"/>
@@ -6964,20 +6967,23 @@
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="13">
-        <f>SUM(E23:H23)</f>
-        <v>5364.99</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="14">
+        <f>SUM(E4:E23)</f>
+        <v>4392</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="H24" s="22">
+        <f>D4-E24</f>
+        <v>972.98999999999978</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="23"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="1"/>
@@ -6994,17 +7000,22 @@
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="13">
+        <f>SUM(E24:H24)</f>
+        <v>5364.99</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -7047,14 +7058,10 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1">
-        <v>1533.03</v>
-      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -7076,10 +7083,14 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <v>1533.03</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -8822,6 +8833,31 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A149CB17-D84B-40CB-A046-0123FD88B5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6132C799-F6F5-4CA9-9EF9-BEBB048DFD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Septiembre" sheetId="1" r:id="rId1"/>
     <sheet name="Octubre" sheetId="3" r:id="rId2"/>
     <sheet name="Noviembre" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -263,6 +264,30 @@
   </si>
   <si>
     <t>Pago de servicio tigo</t>
+  </si>
+  <si>
+    <t>No se sabe :c</t>
+  </si>
+  <si>
+    <t>(Q200 tortillas, 200 gastos)</t>
+  </si>
+  <si>
+    <t>ND nota de débito normal</t>
+  </si>
+  <si>
+    <t>Almuerzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasolina a Casa </t>
+  </si>
+  <si>
+    <t>31/11/2025</t>
+  </si>
+  <si>
+    <t>Serial Super</t>
+  </si>
+  <si>
+    <t>100 GRUA</t>
   </si>
 </sst>
 </file>
@@ -6246,10 +6271,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1400DD-AFE1-43E8-B2CF-C766C3744FCE}">
-  <dimension ref="B2:X98"/>
+  <dimension ref="B2:X109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6946,7 +6971,7 @@
         <v>74</v>
       </c>
       <c r="G23" s="9">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="5"/>
@@ -6970,20 +6995,18 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="14">
-        <f>SUM(E4:E23)</f>
-        <v>4392</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="22">
-        <f>D4-E24</f>
-        <v>972.98999999999978</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="23"/>
+      <c r="E24" s="6">
+        <v>7</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="9">
+        <v>45990</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="1"/>
@@ -7000,18 +7023,19 @@
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
         <v>10</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="13">
-        <f>SUM(E24:H24)</f>
-        <v>5364.99</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="21"/>
+      <c r="F25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="9">
+        <v>45990</v>
+      </c>
+      <c r="H25" s="20"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -7030,17 +7054,23 @@
       <c r="X25" s="1"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>30</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="9">
+        <v>45990</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -7055,17 +7085,23 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>200</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="9">
+        <v>45990</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -7080,21 +7116,23 @@
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1">
-        <v>1533.03</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>100</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -7109,17 +7147,23 @@
       <c r="X28" s="1"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>40</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -7134,17 +7178,23 @@
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <v>5</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -7159,17 +7209,23 @@
       <c r="X30" s="1"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>25</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="9">
+        <v>45992</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -7184,17 +7240,23 @@
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <v>400</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="9">
+        <v>45992</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -7209,17 +7271,23 @@
       <c r="X32" s="1"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
+        <v>15</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="9">
+        <v>45993</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -7234,17 +7302,23 @@
       <c r="X33" s="1"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <v>39</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="9">
+        <v>45993</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -7259,17 +7333,25 @@
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="14">
+        <f>SUM(E4:E34)</f>
+        <v>5263</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="22">
+        <f>D4-E35</f>
+        <v>101.98999999999978</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="23"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -7284,17 +7366,22 @@
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="B36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="13">
+        <f>SUM(E35:H35)</f>
+        <v>5364.99</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -7362,10 +7449,14 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <v>1533.03</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -8858,8 +8949,303 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E37D475-08D4-486C-A1A1-B2BBBAFB893D}">
+  <dimension ref="E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6132C799-F6F5-4CA9-9EF9-BEBB048DFD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5614C072-F491-4887-81C1-4C4215B31815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Septiembre" sheetId="1" r:id="rId1"/>
     <sheet name="Octubre" sheetId="3" r:id="rId2"/>
     <sheet name="Noviembre" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="5" r:id="rId4"/>
+    <sheet name="Diciembre" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -287,7 +287,40 @@
     <t>Serial Super</t>
   </si>
   <si>
-    <t>100 GRUA</t>
+    <t>2da-15na noviembre</t>
+  </si>
+  <si>
+    <t>dsdsdsds</t>
+  </si>
+  <si>
+    <t>Aguinaldo P1</t>
+  </si>
+  <si>
+    <t>Aguinaldo P2</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>DÉBITOS</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN DE DÉBITO</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN DE CRÉDITO</t>
+  </si>
+  <si>
+    <t>Grua moto</t>
+  </si>
+  <si>
+    <t>Aporte a Retiro</t>
+  </si>
+  <si>
+    <t>Retiro, gastos personales</t>
+  </si>
+  <si>
+    <t>En cuenta de (Ahorro o Monetaria)</t>
   </si>
 </sst>
 </file>
@@ -298,7 +331,7 @@
     <numFmt numFmtId="6" formatCode="&quot;Q&quot;#,##0;[Red]\-&quot;Q&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;Q&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +373,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -426,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -471,6 +510,10 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6271,10 +6314,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1400DD-AFE1-43E8-B2CF-C766C3744FCE}">
-  <dimension ref="B2:X109"/>
+  <dimension ref="B2:X110"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7336,20 +7379,16 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="14">
-        <f>SUM(E4:E34)</f>
-        <v>5263</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="22">
-        <f>D4-E35</f>
-        <v>101.98999999999978</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="23"/>
+      <c r="E35" s="6">
+        <v>100</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="1"/>
@@ -7366,22 +7405,2895 @@
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B36" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="13">
-        <f>SUM(E35:H35)</f>
-        <v>5364.99</v>
-      </c>
-      <c r="E36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="14">
+        <f>SUM(E4:E35)</f>
+        <v>5363</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="H36" s="22">
+        <f>D4-E36</f>
+        <v>1.9899999999997817</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="23"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="13">
+        <f>SUM(E36:H36)</f>
+        <v>5364.99</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1">
+        <v>1533.03</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB789B-B25C-4B5F-915B-2E5146AA5011}">
+  <dimension ref="B2:X100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="6" max="6" width="34.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13">
+        <v>2022.57</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="14">
+        <f>SUM(B4:B9)</f>
+        <v>4235.8999999999996</v>
+      </c>
+      <c r="E4" s="8">
+        <v>110</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="9">
+        <v>46021</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7">
+        <v>100</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="9">
+        <v>45994</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13">
+        <v>227.2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7">
+        <v>100</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="9">
+        <v>46030</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="13">
+        <v>1986.13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
+        <v>46031</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="9">
+        <v>46032</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="9">
+        <v>46033</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="9">
+        <v>46034</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="9">
+        <v>46035</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="9">
+        <v>46036</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="14">
+        <f>SUM(E4:E25)</f>
+        <v>310</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="22">
+        <f>D4-E26</f>
+        <v>3925.8999999999996</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="13">
+        <f>SUM(E26:H26)</f>
+        <v>4235.8999999999996</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>1533.03</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -7449,14 +10361,10 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1">
-        <v>1533.03</v>
-      </c>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -8999,253 +11907,13 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
-    </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
-    </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-      <c r="X103" s="1"/>
-    </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
-    </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-      <c r="X105" s="1"/>
-    </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="1"/>
-      <c r="X106" s="1"/>
-    </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
-    </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="1"/>
-      <c r="X108" s="1"/>
-    </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E37D475-08D4-486C-A1A1-B2BBBAFB893D}">
-  <dimension ref="E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5614C072-F491-4887-81C1-4C4215B31815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAA99A1-430F-4761-A2F6-7ABB9CBB5D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -290,16 +290,10 @@
     <t>2da-15na noviembre</t>
   </si>
   <si>
-    <t>dsdsdsds</t>
-  </si>
-  <si>
     <t>Aguinaldo P1</t>
   </si>
   <si>
     <t>Aguinaldo P2</t>
-  </si>
-  <si>
-    <t>pendiente</t>
   </si>
   <si>
     <t>DÉBITOS</t>
@@ -321,6 +315,36 @@
   </si>
   <si>
     <t>En cuenta de (Ahorro o Monetaria)</t>
+  </si>
+  <si>
+    <t>Timon, Pastillas, Kit Kunas</t>
+  </si>
+  <si>
+    <t>Porta Manecillas (Closh)</t>
+  </si>
+  <si>
+    <t>Gasolina semanal</t>
+  </si>
+  <si>
+    <t>1ra-15na diciembre</t>
+  </si>
+  <si>
+    <t>Gasolina de trabajo</t>
+  </si>
+  <si>
+    <t>Uber al trabajo</t>
+  </si>
+  <si>
+    <t>Barras para moto</t>
+  </si>
+  <si>
+    <t>Inversiones Juj GT - ….</t>
+  </si>
+  <si>
+    <t>Comercializa Dora E Hid GT -…</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -465,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -514,6 +538,10 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9306,8 +9334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB789B-B25C-4B5F-915B-2E5146AA5011}">
   <dimension ref="B2:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9356,16 +9384,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>4</v>
@@ -9399,13 +9427,13 @@
       </c>
       <c r="D4" s="14">
         <f>SUM(B4:B9)</f>
-        <v>4235.8999999999996</v>
+        <v>6345.9</v>
       </c>
       <c r="E4" s="8">
         <v>110</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" s="9">
         <v>46021</v>
@@ -9440,7 +9468,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" s="9">
         <v>45994</v>
@@ -9468,14 +9496,14 @@
         <v>227.2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7">
         <v>100</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G6" s="9">
         <v>46030</v>
@@ -9503,13 +9531,15 @@
         <v>1986.13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>215</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="G7" s="9">
         <v>46031</v>
       </c>
@@ -9532,18 +9562,18 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="2:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>86</v>
+      <c r="B8" s="24">
+        <v>2110</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G8" s="9">
         <v>46032</v>
@@ -9571,10 +9601,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="8"/>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G9" s="9">
         <v>46033</v>
@@ -9602,10 +9632,10 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G10" s="9">
         <v>46034</v>
@@ -9633,10 +9663,10 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G11" s="9">
         <v>46035</v>
@@ -9664,10 +9694,10 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G12" s="9">
         <v>46036</v>
@@ -9694,9 +9724,15 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="6">
+        <v>40</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="9">
+        <v>46371</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -9719,9 +9755,15 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="6">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="9">
+        <v>46373</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -9744,9 +9786,15 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="27">
+        <v>250</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="9">
+        <v>46374</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -9769,9 +9817,15 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="6">
+        <v>30</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="9">
+        <v>46371</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -9794,9 +9848,15 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="E17" s="6">
+        <v>40</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="9">
+        <v>46371</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -9819,9 +9879,15 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="9">
+        <v>46376</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -9844,9 +9910,15 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="E19" s="6">
+        <v>40</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="9">
+        <v>46376</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -9869,9 +9941,15 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
+      <c r="E20" s="6">
+        <v>100</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="9">
+        <v>46376</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -10021,16 +10099,16 @@
       <c r="D26" s="6"/>
       <c r="E26" s="14">
         <f>SUM(E4:E25)</f>
-        <v>310</v>
+        <v>2395</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="22">
         <f>D4-E26</f>
-        <v>3925.8999999999996</v>
+        <v>3950.8999999999996</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -10055,7 +10133,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="13">
         <f>SUM(E26:H26)</f>
-        <v>4235.8999999999996</v>
+        <v>6345.9</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAA99A1-430F-4761-A2F6-7ABB9CBB5D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4294A5D-5250-4634-A570-3A3CA819C587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -346,6 +346,30 @@
   <si>
     <t>Pendiente</t>
   </si>
+  <si>
+    <t>Lodera de moto</t>
+  </si>
+  <si>
+    <t>Poste de moto</t>
+  </si>
+  <si>
+    <t>Base de poste de moto</t>
+  </si>
+  <si>
+    <t>Gatos para viajar a casa</t>
+  </si>
+  <si>
+    <t>Gasolina para trabajar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasolina para viajar a casa </t>
+  </si>
+  <si>
+    <t>Gasolina para regresar a la capital</t>
+  </si>
+  <si>
+    <t>Amburguesa almuerzo</t>
+  </si>
 </sst>
 </file>
 
@@ -489,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -538,10 +562,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3239,7 +3259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4178EBF9-3FF0-4226-BA71-7DF463DFD99B}">
   <dimension ref="B2:X114"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -6344,7 +6364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1400DD-AFE1-43E8-B2CF-C766C3744FCE}">
   <dimension ref="B2:X110"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -9332,10 +9352,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB789B-B25C-4B5F-915B-2E5146AA5011}">
-  <dimension ref="B2:X100"/>
+  <dimension ref="B2:X104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9786,10 +9806,10 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="27">
+      <c r="E15" s="19">
         <v>250</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="16" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="9">
@@ -9880,7 +9900,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>98</v>
@@ -9972,9 +9992,15 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
+      <c r="E21" s="6">
+        <v>75</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="9">
+        <v>46013</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -9997,9 +10023,15 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
+      <c r="E22" s="6">
+        <v>230</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="9">
+        <v>46013</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -10022,9 +10054,15 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
+      <c r="E23" s="6">
+        <v>115</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="9">
+        <v>46013</v>
+      </c>
       <c r="H23" s="20"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10047,9 +10085,15 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="6">
+        <v>300</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="9">
+        <v>46014</v>
+      </c>
       <c r="H24" s="20"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10072,9 +10116,15 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="6">
+        <v>30</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="9">
+        <v>46020</v>
+      </c>
       <c r="H25" s="20"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10097,21 +10147,19 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="14">
-        <f>SUM(E4:E25)</f>
-        <v>2395</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="22">
-        <f>D4-E26</f>
-        <v>3950.8999999999996</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="E26" s="6">
+        <v>45</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="9">
+        <v>46021</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -10127,18 +10175,19 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="13">
-        <f>SUM(E26:H26)</f>
-        <v>6345.9</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="21"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>40</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="9">
+        <v>46022</v>
+      </c>
+      <c r="H27" s="20"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -10157,17 +10206,23 @@
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>30</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="9">
+        <v>46023</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -10182,17 +10237,17 @@
       <c r="X28" s="1"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -10207,21 +10262,25 @@
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1">
-        <v>1533.03</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="14">
+        <f>SUM(E4:E29)</f>
+        <v>3285</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="22">
+        <f>D4-E30</f>
+        <v>3060.8999999999996</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -10236,17 +10295,22 @@
       <c r="X30" s="1"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="13">
+        <f>SUM(E30:H30)</f>
+        <v>6345.9</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -10314,10 +10378,14 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>1533.03</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -11985,9 +12053,109 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I30:K30"/>
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4294A5D-5250-4634-A570-3A3CA819C587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594D3665-F54F-41B3-B7DA-A70DDEC2504E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Septiembre" sheetId="1" r:id="rId1"/>
-    <sheet name="Octubre" sheetId="3" r:id="rId2"/>
-    <sheet name="Noviembre" sheetId="4" r:id="rId3"/>
-    <sheet name="Diciembre" sheetId="6" r:id="rId4"/>
+    <sheet name="Septie2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Octub2025" sheetId="3" r:id="rId2"/>
+    <sheet name="Noviem2025" sheetId="4" r:id="rId3"/>
+    <sheet name="Diciem2025" sheetId="7" r:id="rId4"/>
+    <sheet name="Ene2026" sheetId="8" r:id="rId5"/>
+    <sheet name="Presupuesto 2026" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="126">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -314,9 +316,6 @@
     <t>Retiro, gastos personales</t>
   </si>
   <si>
-    <t>En cuenta de (Ahorro o Monetaria)</t>
-  </si>
-  <si>
     <t>Timon, Pastillas, Kit Kunas</t>
   </si>
   <si>
@@ -370,6 +369,57 @@
   <si>
     <t>Amburguesa almuerzo</t>
   </si>
+  <si>
+    <t>Retrovisor derecho</t>
+  </si>
+  <si>
+    <t>En cuenta de (Ahorro mas Monetaria)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enderazado y armado de Moto </t>
+  </si>
+  <si>
+    <t>Base y barra de Moto (Repuesto)</t>
+  </si>
+  <si>
+    <t>2da-15cena diciembre 2025</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>1ra-15cena enero 2026</t>
+  </si>
+  <si>
+    <t>Totol gastado</t>
+  </si>
+  <si>
+    <t>Extra Random</t>
+  </si>
+  <si>
+    <t>FECHA DE ENVÍO</t>
+  </si>
+  <si>
+    <t>Matrícula de Universidad</t>
+  </si>
+  <si>
+    <t>FECHA DE PAGO</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>Mensualidad - Enero</t>
+  </si>
+  <si>
+    <t>SUMATORIA</t>
+  </si>
+  <si>
+    <t>Renta de casa</t>
+  </si>
+  <si>
+    <t>Total enero</t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +429,7 @@
     <numFmt numFmtId="6" formatCode="&quot;Q&quot;#,##0;[Red]\-&quot;Q&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;Q&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,12 +471,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -513,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -562,6 +606,14 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9351,11 +9403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB789B-B25C-4B5F-915B-2E5146AA5011}">
-  <dimension ref="B2:X104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D9B58A-F89F-495A-9616-A935D88CE666}">
+  <dimension ref="B2:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9456,9 +9508,12 @@
         <v>88</v>
       </c>
       <c r="G4" s="9">
-        <v>46021</v>
-      </c>
-      <c r="H4" s="6"/>
+        <v>45991</v>
+      </c>
+      <c r="H4" s="6">
+        <f>(D4-E4)</f>
+        <v>6235.9</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -9493,7 +9548,10 @@
       <c r="G5" s="9">
         <v>45994</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6">
+        <f>H4-E5</f>
+        <v>6135.9</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -9528,7 +9586,10 @@
       <c r="G6" s="9">
         <v>46030</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6">
+        <f t="shared" ref="H6:H30" si="0">H5-E6</f>
+        <v>6035.9</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -9558,12 +9619,15 @@
         <v>215</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="9">
         <v>46031</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>5820.9</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -9586,19 +9650,22 @@
         <v>2110</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7">
         <v>100</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="9">
         <v>46032</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>5720.9</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -9624,12 +9691,15 @@
         <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="9">
         <v>46033</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>5680.9</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="18"/>
@@ -9660,7 +9730,10 @@
       <c r="G10" s="9">
         <v>46034</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>5630.9</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -9691,7 +9764,10 @@
       <c r="G11" s="9">
         <v>46035</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>5600.9</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -9722,7 +9798,10 @@
       <c r="G12" s="9">
         <v>46036</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>5500.9</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -9748,12 +9827,15 @@
         <v>40</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="9">
         <v>46371</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6">
+        <f>H12-E13</f>
+        <v>5460.9</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -9779,12 +9861,15 @@
         <v>50</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" s="9">
         <v>46373</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>5410.9</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -9815,7 +9900,10 @@
       <c r="G15" s="9">
         <v>46374</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>5160.8999999999996</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -9841,12 +9929,15 @@
         <v>30</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="9">
         <v>46371</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>5130.8999999999996</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -9872,12 +9963,15 @@
         <v>40</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="9">
         <v>46371</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <f>H16-E17</f>
+        <v>5090.8999999999996</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -9903,12 +9997,15 @@
         <v>1025</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="9">
         <v>46376</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>4065.8999999999996</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -9934,12 +10031,15 @@
         <v>40</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" s="9">
         <v>46376</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>4025.8999999999996</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -9970,7 +10070,10 @@
       <c r="G20" s="9">
         <v>46376</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>3925.8999999999996</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -9996,12 +10099,15 @@
         <v>75</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="9">
         <v>46013</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6">
+        <f>H20-E21</f>
+        <v>3850.8999999999996</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -10027,12 +10133,15 @@
         <v>230</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="9">
         <v>46013</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>3620.8999999999996</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -10058,12 +10167,15 @@
         <v>115</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="9">
         <v>46013</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>3505.8999999999996</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -10089,13 +10201,16 @@
         <v>300</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="9">
         <v>46014</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>3205.8999999999996</v>
+      </c>
+      <c r="I24" s="27"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -10117,16 +10232,19 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6">
-        <v>30</v>
+        <v>650</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G25" s="9">
-        <v>46020</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="5"/>
+        <v>46019</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>2555.8999999999996</v>
+      </c>
+      <c r="I25" s="27"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -10148,16 +10266,19 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G26" s="9">
-        <v>46021</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="5"/>
+        <v>46019</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>2305.8999999999996</v>
+      </c>
+      <c r="I26" s="27"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -10179,15 +10300,18 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G27" s="9">
-        <v>46022</v>
-      </c>
-      <c r="H27" s="20"/>
+        <v>46020</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>2275.8999999999996</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -10210,15 +10334,18 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G28" s="9">
-        <v>46023</v>
-      </c>
-      <c r="H28" s="20"/>
+        <v>46020</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>2175.8999999999996</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -10240,10 +10367,19 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="20"/>
+      <c r="E29" s="6">
+        <v>45</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="9">
+        <v>46021</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>2130.8999999999996</v>
+      </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -10265,21 +10401,22 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="14">
-        <f>SUM(E4:E29)</f>
-        <v>3285</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="22">
-        <f>D4-E30</f>
-        <v>3060.8999999999996</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="E30" s="6">
+        <v>40</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="9">
+        <v>46022</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="0"/>
+        <v>2090.8999999999996</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -10295,21 +10432,24 @@
       <c r="X30" s="1"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B31" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="13">
-        <f>SUM(E30:H30)</f>
-        <v>6345.9</v>
-      </c>
-      <c r="E31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="14">
+        <f>SUM(E4:E30)</f>
+        <v>4255</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="H31" s="22">
+        <f>D4-E31</f>
+        <v>2090.8999999999996</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
       <c r="L31" s="5"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -10325,17 +10465,22 @@
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="B32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="13">
+        <f>SUM(E31:H31)</f>
+        <v>6345.9</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -10378,14 +10523,10 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1">
-        <v>1533.03</v>
-      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -10407,7 +10548,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -12153,13 +12296,2695 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I30:K30"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC196E7-8BBE-4BB1-B062-6F807BAF4D7C}">
+  <dimension ref="B2:Y94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="34.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13">
+        <v>1915.98</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="9">
+        <v>46017</v>
+      </c>
+      <c r="E4" s="14">
+        <f>SUM(B4:B9)</f>
+        <v>4026.88</v>
+      </c>
+      <c r="F4" s="8">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="9">
+        <v>46023</v>
+      </c>
+      <c r="I4" s="6">
+        <f>(E4-F4)</f>
+        <v>3996.88</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13">
+        <v>2090.9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9">
+        <v>46024</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="9">
+        <v>46024</v>
+      </c>
+      <c r="I5" s="6">
+        <f>I4-F5</f>
+        <v>3996.88</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="9">
+        <v>46024</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="9">
+        <v>46025</v>
+      </c>
+      <c r="I6" s="6">
+        <f>I5-F6</f>
+        <v>3996.88</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="14">
+        <f>SUM(F4:F19)</f>
+        <v>30</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="22">
+        <f>E4-F20</f>
+        <v>3996.88</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13">
+        <f>SUM(F20:I20)</f>
+        <v>4026.88</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>1533.03</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J20:L20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EDF303-38A9-4871-A42F-526357F8CC3F}">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
+        <v>46032</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="7">
+        <f>C4+C5</f>
+        <v>5000</v>
+      </c>
+      <c r="E5" s="9">
+        <v>46037</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="7">
+        <v>600</v>
+      </c>
+      <c r="D6" s="7">
+        <f>C6+D5</f>
+        <v>5600</v>
+      </c>
+      <c r="E6" s="9">
+        <v>46052</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>5600</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594D3665-F54F-41B3-B7DA-A70DDEC2504E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C35B90E-6314-4BCF-9D7E-E8F273E4B4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Septie2025" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Diciem2025" sheetId="7" r:id="rId4"/>
     <sheet name="Ene2026" sheetId="8" r:id="rId5"/>
     <sheet name="Presupuesto 2026" sheetId="9" r:id="rId6"/>
+    <sheet name="PresupV1" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="136">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -420,6 +421,36 @@
   <si>
     <t>Total enero</t>
   </si>
+  <si>
+    <t>CRÉDITO</t>
+  </si>
+  <si>
+    <t>Pago de Universidad</t>
+  </si>
+  <si>
+    <t>DÉBITO MENSUAL</t>
+  </si>
+  <si>
+    <t>Combustible mensual</t>
+  </si>
+  <si>
+    <t>Gastos para comidad mensual</t>
+  </si>
+  <si>
+    <t>Pago de Internet Movil</t>
+  </si>
+  <si>
+    <t>Pago Mensual</t>
+  </si>
+  <si>
+    <t>Gatos extras</t>
+  </si>
+  <si>
+    <t>PRESUPUESTO MENSUAL 2026</t>
+  </si>
+  <si>
+    <t>SALDO SOBRANTE</t>
+  </si>
 </sst>
 </file>
 
@@ -429,7 +460,7 @@
     <numFmt numFmtId="6" formatCode="&quot;Q&quot;#,##0;[Red]\-&quot;Q&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;Q&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +499,19 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -557,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -614,6 +658,24 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12336,7 +12398,7 @@
   <dimension ref="B2:Y94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14875,8 +14937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EDF303-38A9-4871-A42F-526357F8CC3F}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14987,4 +15049,292 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E24FAE-007C-474F-8432-FA016CF65CB4}">
+  <dimension ref="B2:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" style="33" customWidth="1"/>
+    <col min="5" max="6" width="16.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4000</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="7">
+        <f>E4</f>
+        <v>2000</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="7">
+        <f>C4-E4</f>
+        <v>2000</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="7">
+        <v>600</v>
+      </c>
+      <c r="F5" s="7">
+        <f>E5+F4</f>
+        <v>2600</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="7">
+        <f>H4-E5</f>
+        <v>1400</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="7">
+        <v>160</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:F7" si="0">E6+F5</f>
+        <v>2760</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" ref="H6:H9" si="1">H5-E6</f>
+        <v>1240</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="7">
+        <v>500</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>3260</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>740</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="7">
+        <v>125</v>
+      </c>
+      <c r="F8" s="7">
+        <f>E8+F7</f>
+        <v>3385</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7">
+        <v>70</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9:F10" si="2">E9+F8</f>
+        <v>3455</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>545</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="7">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" ref="F10" si="3">E10+F9</f>
+        <v>3655</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="7">
+        <f>H9-E10</f>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C35B90E-6314-4BCF-9D7E-E8F273E4B4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAACBA98-9A93-47B9-AB3C-B90043BCB0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Septie2025" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -451,6 +451,12 @@
   <si>
     <t>SALDO SOBRANTE</t>
   </si>
+  <si>
+    <t>Para gastos del trabajo y otros</t>
+  </si>
+  <si>
+    <t>Aporte convivio navideño</t>
+  </si>
 </sst>
 </file>
 
@@ -601,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -647,11 +653,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,21 +660,22 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9487,15 +9489,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -10272,7 +10274,7 @@
         <f t="shared" si="0"/>
         <v>3205.8999999999996</v>
       </c>
-      <c r="I24" s="27"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -10306,7 +10308,7 @@
         <f t="shared" si="0"/>
         <v>2555.8999999999996</v>
       </c>
-      <c r="I25" s="27"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -10340,7 +10342,7 @@
         <f t="shared" si="0"/>
         <v>2305.8999999999996</v>
       </c>
-      <c r="I26" s="27"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -10507,11 +10509,11 @@
         <f>D4-E31</f>
         <v>2090.8999999999996</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="5"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -12397,8 +12399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC196E7-8BBE-4BB1-B062-6F807BAF4D7C}">
   <dimension ref="B2:Y94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12417,16 +12419,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -12445,28 +12447,28 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="26" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1"/>
@@ -12542,17 +12544,17 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H5" s="9">
         <v>46024</v>
       </c>
       <c r="I5" s="6">
         <f>I4-F5</f>
-        <v>3996.88</v>
+        <v>3846.88</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -12583,17 +12585,17 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="H6" s="9">
         <v>46025</v>
       </c>
       <c r="I6" s="6">
         <f>I5-F6</f>
-        <v>3996.88</v>
+        <v>3646.88</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -12621,10 +12623,10 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -12911,7 +12913,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="27"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -12963,19 +12965,19 @@
       <c r="E20" s="6"/>
       <c r="F20" s="14">
         <f>SUM(F4:F19)</f>
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="22">
         <f>E4-F20</f>
-        <v>3996.88</v>
-      </c>
-      <c r="J20" s="25" t="s">
+        <v>3646.88</v>
+      </c>
+      <c r="J20" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="5"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -14937,8 +14939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EDF303-38A9-4871-A42F-526357F8CC3F}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14950,26 +14952,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>86</v>
       </c>
     </row>
@@ -15034,7 +15036,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="28"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
@@ -15055,7 +15057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E24FAE-007C-474F-8432-FA016CF65CB4}">
   <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -15064,43 +15066,43 @@
     <col min="1" max="1" width="2.81640625" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" customWidth="1"/>
     <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
     <col min="5" max="6" width="16.08984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.08984375" customWidth="1"/>
     <col min="8" max="8" width="16.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="26" t="s">
         <v>135</v>
       </c>
     </row>
@@ -15111,7 +15113,7 @@
       <c r="C4" s="8">
         <v>4000</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="29" t="s">
         <v>127</v>
       </c>
       <c r="E4" s="7">
@@ -15128,13 +15130,13 @@
         <f>C4-E4</f>
         <v>2000</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="29" t="s">
         <v>124</v>
       </c>
       <c r="E5" s="7">
@@ -15151,13 +15153,13 @@
         <f>H4-E5</f>
         <v>1400</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="29" t="s">
         <v>129</v>
       </c>
       <c r="E6" s="7">
@@ -15174,13 +15176,13 @@
         <f t="shared" ref="H6:H9" si="1">H5-E6</f>
         <v>1240</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="30" t="s">
         <v>130</v>
       </c>
       <c r="E7" s="7">
@@ -15197,13 +15199,13 @@
         <f t="shared" si="1"/>
         <v>740</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="30" t="s">
         <v>131</v>
       </c>
       <c r="E8" s="7">
@@ -15220,20 +15222,20 @@
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="7">
         <v>70</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ref="F9:F10" si="2">E9+F8</f>
+        <f t="shared" ref="F9" si="2">E9+F8</f>
         <v>3455</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -15243,13 +15245,13 @@
         <f t="shared" si="1"/>
         <v>545</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="17" t="s">
         <v>133</v>
       </c>
       <c r="E10" s="7">
@@ -15270,7 +15272,7 @@
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
@@ -15279,7 +15281,7 @@
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
@@ -15288,7 +15290,7 @@
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
@@ -15297,7 +15299,7 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="6"/>
@@ -15306,7 +15308,7 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="32"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="6"/>
@@ -15315,7 +15317,7 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="6"/>
@@ -15324,7 +15326,7 @@
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="6"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAACBA98-9A93-47B9-AB3C-B90043BCB0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013850BC-5F7D-4E8E-A1F4-96D8DE38FB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="144">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -457,6 +457,24 @@
   <si>
     <t>Aporte convivio navideño</t>
   </si>
+  <si>
+    <t xml:space="preserve">Cable para clohs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Led de moto </t>
+  </si>
+  <si>
+    <t>Colección de carros (G9)</t>
+  </si>
+  <si>
+    <t>Cortina para ventana (G9)</t>
+  </si>
+  <si>
+    <t>Gasolina de moto semanal</t>
+  </si>
+  <si>
+    <t>Creí que ya había pagado cable clohs</t>
+  </si>
 </sst>
 </file>
 
@@ -607,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -672,6 +690,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9489,15 +9508,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -10509,11 +10528,11 @@
         <f>D4-E31</f>
         <v>2090.8999999999996</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="5"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -12400,7 +12419,7 @@
   <dimension ref="B2:Y94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12410,7 +12429,7 @@
     <col min="3" max="3" width="25.453125" customWidth="1"/>
     <col min="4" max="4" width="16.36328125" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="34.81640625" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" customWidth="1"/>
     <col min="9" max="9" width="13.26953125" customWidth="1"/>
@@ -12419,16 +12438,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -12623,10 +12642,19 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="F7" s="32">
+        <v>50</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="9">
+        <v>46025</v>
+      </c>
+      <c r="I7" s="6">
+        <f>I6-F7</f>
+        <v>3596.88</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -12649,10 +12677,19 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="7">
+        <v>127</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="9">
+        <v>46025</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" ref="I8:I15" si="0">I7-F8</f>
+        <v>3469.88</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -12675,10 +12712,19 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="6"/>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="9">
+        <v>46025</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>3469.88</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="18"/>
@@ -12701,10 +12747,19 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="9">
+        <v>46025</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>3469.88</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -12727,10 +12782,19 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="6"/>
+      <c r="F11" s="6">
+        <v>35</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="9">
+        <v>46025</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>3434.88</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -12753,10 +12817,19 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="6"/>
+      <c r="F12" s="6">
+        <v>50</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="9">
+        <v>46027</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>3384.88</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -12779,10 +12852,19 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="6"/>
+      <c r="F13" s="6">
+        <v>30</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="9">
+        <v>46027</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>3354.88</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -12805,10 +12887,19 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="6"/>
+      <c r="F14" s="6">
+        <v>100</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="9">
+        <v>46028</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>3254.88</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -12831,10 +12922,19 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="6"/>
+      <c r="F15" s="6">
+        <v>50</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="9">
+        <v>46028</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>3204.88</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -12965,19 +13065,19 @@
       <c r="E20" s="6"/>
       <c r="F20" s="14">
         <f>SUM(F4:F19)</f>
-        <v>380</v>
+        <v>822</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="22">
         <f>E4-F20</f>
-        <v>3646.88</v>
-      </c>
-      <c r="J20" s="33" t="s">
+        <v>3204.88</v>
+      </c>
+      <c r="J20" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="5"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -13028,7 +13128,6 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -13054,7 +13153,6 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -13110,7 +13208,6 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -13136,7 +13233,6 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -13162,7 +13258,6 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -13188,7 +13283,6 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -13214,7 +13308,6 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -13240,7 +13333,6 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -13266,7 +13358,6 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -13292,7 +13383,6 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -13318,7 +13408,6 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -13344,7 +13433,6 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -13370,7 +13458,6 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -13396,7 +13483,6 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -13422,7 +13508,6 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -13448,7 +13533,6 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -13474,7 +13558,6 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -13500,7 +13583,6 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -13526,7 +13608,6 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -13552,7 +13633,6 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -13578,7 +13658,6 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -13604,7 +13683,6 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -13630,7 +13708,6 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -13656,7 +13733,6 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -13682,7 +13758,6 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -13708,7 +13783,6 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -13734,7 +13808,6 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -13760,7 +13833,6 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -13786,7 +13858,6 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -13812,7 +13883,6 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -13838,7 +13908,6 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -13864,7 +13933,6 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -13890,7 +13958,6 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -13916,7 +13983,6 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -13942,7 +14008,6 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -13968,7 +14033,6 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -13994,7 +14058,6 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -14020,7 +14083,6 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -14046,7 +14108,6 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -14072,7 +14133,6 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -14098,7 +14158,6 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -14124,7 +14183,6 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -14150,7 +14208,6 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -14176,7 +14233,6 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -14202,7 +14258,6 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -14228,7 +14283,6 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -14254,7 +14308,6 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -14280,7 +14333,6 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -14306,7 +14358,6 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -14332,7 +14383,6 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -14358,7 +14408,6 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -14384,7 +14433,6 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -14410,7 +14458,6 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -14436,7 +14483,6 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -14462,7 +14508,6 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -14488,7 +14533,6 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -14514,7 +14558,6 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -14540,7 +14583,6 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -14566,7 +14608,6 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -14592,7 +14633,6 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -14618,7 +14658,6 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -14644,7 +14683,6 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -14670,7 +14708,6 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -14696,7 +14733,6 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -14722,7 +14758,6 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -14748,7 +14783,6 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -14774,7 +14808,6 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -14800,7 +14833,6 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -14826,7 +14858,6 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -14852,7 +14883,6 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -14878,7 +14908,6 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -14904,7 +14933,6 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -14952,11 +14980,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="26" t="s">
@@ -15073,15 +15101,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="26" t="s">

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013850BC-5F7D-4E8E-A1F4-96D8DE38FB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9C4C37-9D7C-44BB-B3E3-72550B22130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="150">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -474,6 +474,24 @@
   </si>
   <si>
     <t>Creí que ya había pagado cable clohs</t>
+  </si>
+  <si>
+    <t>Compras de higiene personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendiente </t>
+  </si>
+  <si>
+    <t>Gasolina (Vier, Sab, Dom)</t>
+  </si>
+  <si>
+    <t>Piezas de pollo (Almuerzo)</t>
+  </si>
+  <si>
+    <t>Renovación de Beca</t>
+  </si>
+  <si>
+    <t>Pago matrícula de Universidad</t>
   </si>
 </sst>
 </file>
@@ -12416,10 +12434,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC196E7-8BBE-4BB1-B062-6F807BAF4D7C}">
-  <dimension ref="B2:Y94"/>
+  <dimension ref="B2:Y100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12687,7 +12705,7 @@
         <v>46025</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" ref="I8:I15" si="0">I7-F8</f>
+        <f t="shared" ref="I8:I14" si="0">I7-F8</f>
         <v>3469.88</v>
       </c>
       <c r="J8" s="5"/>
@@ -12932,7 +12950,7 @@
         <v>46028</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="0"/>
+        <f>I14-F15</f>
         <v>3204.88</v>
       </c>
       <c r="J15" s="5"/>
@@ -12957,10 +12975,19 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="6"/>
+      <c r="F16" s="6">
+        <v>145</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="9">
+        <v>46028</v>
+      </c>
+      <c r="I16" s="6">
+        <f>I15-F16</f>
+        <v>3059.88</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -12983,10 +13010,19 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="6"/>
+      <c r="F17" s="1">
+        <v>50</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="9">
+        <v>46028</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" ref="I17:I24" si="1">I16-F17</f>
+        <v>3009.88</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -13009,10 +13045,19 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="6"/>
+      <c r="F18" s="32">
+        <v>20</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="9">
+        <v>46031</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
+        <v>2989.88</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -13035,10 +13080,19 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="20"/>
+      <c r="F19" s="32">
+        <v>30</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="9">
+        <v>46032</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>2959.88</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -13057,27 +13111,26 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="14">
-        <f>SUM(F4:F19)</f>
-        <v>822</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="22">
-        <f>E4-F20</f>
-        <v>3204.88</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="F20" s="32">
+        <v>100</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="9">
+        <v>46032</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>2859.88</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -13093,19 +13146,23 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="13">
-        <f>SUM(F20:I20)</f>
-        <v>4026.88</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="21"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="32">
+        <v>50</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="9">
+        <v>46033</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>2809.88</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -13124,17 +13181,27 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="32">
+        <v>150</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="9">
+        <v>46034</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>2659.88</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -13149,17 +13216,27 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="32">
+        <v>2100</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="9">
+        <v>46034</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="1"/>
+        <v>559.88000000000011</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -13174,22 +13251,27 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1">
-        <v>1533.03</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>40</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="9">
+        <v>46034</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="1"/>
+        <v>519.88000000000011</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -13204,17 +13286,17 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -13229,17 +13311,28 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="B26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="14">
+        <f>SUM(F4:F25)</f>
+        <v>3507</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="22">
+        <f>E4-F26</f>
+        <v>519.88000000000011</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -13254,17 +13347,23 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="B27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="13">
+        <f>SUM(F26:I26)</f>
+        <v>4026.88</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -13333,9 +13432,14 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1">
+        <v>1533.03</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -14953,10 +15057,160 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9C4C37-9D7C-44BB-B3E3-72550B22130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297CAC81-4D0D-4462-BEA4-8D128C562F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="152">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -492,6 +492,12 @@
   </si>
   <si>
     <t>Pago matrícula de Universidad</t>
+  </si>
+  <si>
+    <t>Super del Barrio</t>
+  </si>
+  <si>
+    <t>Netflix del Mes</t>
   </si>
 </sst>
 </file>
@@ -12434,10 +12440,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC196E7-8BBE-4BB1-B062-6F807BAF4D7C}">
-  <dimension ref="B2:Y100"/>
+  <dimension ref="B2:Y104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12537,7 +12543,7 @@
       </c>
       <c r="E4" s="14">
         <f>SUM(B4:B9)</f>
-        <v>4026.88</v>
+        <v>6162.57</v>
       </c>
       <c r="F4" s="8">
         <v>30</v>
@@ -12550,7 +12556,7 @@
       </c>
       <c r="I4" s="6">
         <f>(E4-F4)</f>
-        <v>3996.88</v>
+        <v>6132.57</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -12591,7 +12597,7 @@
       </c>
       <c r="I5" s="6">
         <f>I4-F5</f>
-        <v>3846.88</v>
+        <v>5982.57</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -12632,7 +12638,7 @@
       </c>
       <c r="I6" s="6">
         <f>I5-F6</f>
-        <v>3646.88</v>
+        <v>5782.57</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -12652,8 +12658,8 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
-        <v>114</v>
+      <c r="B7" s="24">
+        <v>2135.69</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>115</v>
@@ -12671,7 +12677,7 @@
       </c>
       <c r="I7" s="6">
         <f>I6-F7</f>
-        <v>3596.88</v>
+        <v>5732.57</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -12706,7 +12712,7 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" ref="I8:I14" si="0">I7-F8</f>
-        <v>3469.88</v>
+        <v>5605.57</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -12741,7 +12747,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>3469.88</v>
+        <v>5605.57</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -12776,7 +12782,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>3469.88</v>
+        <v>5605.57</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -12811,7 +12817,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>3434.88</v>
+        <v>5570.57</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -12846,7 +12852,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>3384.88</v>
+        <v>5520.57</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -12881,7 +12887,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="0"/>
-        <v>3354.88</v>
+        <v>5490.57</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -12916,7 +12922,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="0"/>
-        <v>3254.88</v>
+        <v>5390.57</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -12951,7 +12957,7 @@
       </c>
       <c r="I15" s="6">
         <f>I14-F15</f>
-        <v>3204.88</v>
+        <v>5340.57</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -12986,7 +12992,7 @@
       </c>
       <c r="I16" s="6">
         <f>I15-F16</f>
-        <v>3059.88</v>
+        <v>5195.57</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -13020,8 +13026,8 @@
         <v>46028</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" ref="I17:I24" si="1">I16-F17</f>
-        <v>3009.88</v>
+        <f t="shared" ref="I17:I27" si="1">I16-F17</f>
+        <v>5145.57</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -13056,7 +13062,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>2989.88</v>
+        <v>5125.57</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -13091,7 +13097,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="1"/>
-        <v>2959.88</v>
+        <v>5095.57</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -13126,7 +13132,7 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" si="1"/>
-        <v>2859.88</v>
+        <v>4995.57</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -13161,7 +13167,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="1"/>
-        <v>2809.88</v>
+        <v>4945.57</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -13196,7 +13202,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="1"/>
-        <v>2659.88</v>
+        <v>4795.57</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -13231,7 +13237,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="1"/>
-        <v>559.88000000000011</v>
+        <v>2695.5699999999997</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -13266,7 +13272,7 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" si="1"/>
-        <v>519.88000000000011</v>
+        <v>2655.5699999999997</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -13290,9 +13296,19 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="20"/>
+      <c r="F25" s="6">
+        <v>100</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="9">
+        <v>46035</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="1"/>
+        <v>2555.5699999999997</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -13311,27 +13327,26 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="14">
-        <f>SUM(F4:F25)</f>
-        <v>3507</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="22">
-        <f>E4-F26</f>
-        <v>519.88000000000011</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
+      <c r="F26" s="6">
+        <v>60</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="9">
+        <v>46035</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="1"/>
+        <v>2495.5699999999997</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -13347,19 +13362,23 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="13">
-        <f>SUM(F26:I26)</f>
-        <v>4026.88</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="21"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <v>70</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="9">
+        <v>46035</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>2425.5699999999997</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -13378,17 +13397,18 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -13403,17 +13423,18 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -13428,22 +13449,28 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1">
-        <v>1533.03</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="B30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="14">
+        <f>SUM(F4:F29)</f>
+        <v>3737</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="22">
+        <f>E4-F30</f>
+        <v>2425.5699999999997</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -13458,17 +13485,23 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="13">
+        <f>SUM(F30:I30)</f>
+        <v>6162.57</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -13537,9 +13570,14 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1">
+        <v>1533.03</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -15207,10 +15245,110 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+    </row>
+    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+    </row>
+    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+    </row>
+    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J30:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297CAC81-4D0D-4462-BEA4-8D128C562F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71343640-F419-4700-809C-62BD3A8E0FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t>Netflix del Mes</t>
+  </si>
+  <si>
+    <t>Instalación de luz led a moto</t>
+  </si>
+  <si>
+    <t>Desparacitante, Sucrol, Vital Fuerta</t>
   </si>
 </sst>
 </file>
@@ -12440,10 +12446,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC196E7-8BBE-4BB1-B062-6F807BAF4D7C}">
-  <dimension ref="B2:Y104"/>
+  <dimension ref="B2:Y110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13026,7 +13032,7 @@
         <v>46028</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" ref="I17:I27" si="1">I16-F17</f>
+        <f t="shared" ref="I17:I30" si="1">I16-F17</f>
         <v>5145.57</v>
       </c>
       <c r="J17" s="5"/>
@@ -13401,10 +13407,19 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="20"/>
+      <c r="F28" s="6">
+        <v>50</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="9">
+        <v>46035</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="1"/>
+        <v>2375.5699999999997</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -13427,10 +13442,19 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="20"/>
+      <c r="F29" s="6">
+        <v>281</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="9">
+        <v>46037</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="1"/>
+        <v>2094.5699999999997</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -13449,27 +13473,26 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="14">
-        <f>SUM(F4:F29)</f>
-        <v>3737</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="22">
-        <f>E4-F30</f>
-        <v>2425.5699999999997</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
+      <c r="F30" s="6">
+        <v>10</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="9">
+        <v>46038</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="1"/>
+        <v>2084.5699999999997</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -13485,19 +13508,14 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B31" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="13">
-        <f>SUM(F30:I30)</f>
-        <v>6162.57</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="21"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="20"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -13516,17 +13534,18 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -13541,17 +13560,18 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -13566,22 +13586,18 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1">
-        <v>1533.03</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -13596,17 +13612,18 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -13621,17 +13638,28 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="B36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="14">
+        <f>SUM(F4:F35)</f>
+        <v>4078</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="22">
+        <f>E4-F36</f>
+        <v>2084.5699999999997</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="5"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -13646,17 +13674,23 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="B37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="13">
+        <f>SUM(F36:I36)</f>
+        <v>6162.57</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -13725,9 +13759,14 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="1">
+        <v>1533.03</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -15345,10 +15384,160 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
+    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+    </row>
+    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+    </row>
+    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+    </row>
+    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+    </row>
+    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+    </row>
+    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J36:L36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71343640-F419-4700-809C-62BD3A8E0FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EC179-0A1C-47D2-AFD9-192FFD8CB8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="159">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -504,6 +504,21 @@
   </si>
   <si>
     <t>Desparacitante, Sucrol, Vital Fuerta</t>
+  </si>
+  <si>
+    <t>ATMS (Gasto desconocido)</t>
+  </si>
+  <si>
+    <t>Pago servicio de Internet</t>
+  </si>
+  <si>
+    <t>Baterías AAA</t>
+  </si>
+  <si>
+    <t>Porta-teléfono</t>
+  </si>
+  <si>
+    <t>Corte de cabello</t>
   </si>
 </sst>
 </file>
@@ -12446,10 +12461,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC196E7-8BBE-4BB1-B062-6F807BAF4D7C}">
-  <dimension ref="B2:Y110"/>
+  <dimension ref="B2:Y112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13032,7 +13047,7 @@
         <v>46028</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" ref="I17:I30" si="1">I16-F17</f>
+        <f t="shared" ref="I17:I36" si="1">I16-F17</f>
         <v>5145.57</v>
       </c>
       <c r="J17" s="5"/>
@@ -13512,10 +13527,19 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="20"/>
+      <c r="F31" s="6">
+        <v>15</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="9">
+        <v>46039</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="1"/>
+        <v>2069.5699999999997</v>
+      </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -13538,10 +13562,19 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="20"/>
+      <c r="F32" s="6">
+        <v>135</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="9">
+        <v>46039</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="1"/>
+        <v>1934.5699999999997</v>
+      </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -13564,10 +13597,19 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="20"/>
+      <c r="F33" s="6">
+        <v>18</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="9">
+        <v>46039</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="1"/>
+        <v>1916.5699999999997</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -13590,10 +13632,19 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="20"/>
+      <c r="F34" s="6">
+        <v>34</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="9">
+        <v>46039</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="1"/>
+        <v>1882.5699999999997</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -13616,10 +13667,19 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="20"/>
+      <c r="F35" s="6">
+        <v>60</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="9">
+        <v>46039</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="1"/>
+        <v>1822.5699999999997</v>
+      </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -13638,27 +13698,26 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B36" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="14">
-        <f>SUM(F4:F35)</f>
-        <v>4078</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="22">
-        <f>E4-F36</f>
-        <v>2084.5699999999997</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
+      <c r="F36" s="6">
+        <v>20</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="9">
+        <v>46039</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="1"/>
+        <v>1802.5699999999997</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -13674,19 +13733,14 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B37" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="13">
-        <f>SUM(F36:I36)</f>
-        <v>6162.57</v>
-      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="21"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -13705,17 +13759,28 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="B38" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="14">
+        <f>SUM(F4:F37)</f>
+        <v>4360</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="22">
+        <f>E4-F38</f>
+        <v>1802.5699999999997</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="5"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -13730,17 +13795,23 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="B39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="13">
+        <f>SUM(F38:I38)</f>
+        <v>6162.57</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -13759,14 +13830,9 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1">
-        <v>1533.03</v>
-      </c>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -13814,9 +13880,14 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1">
+        <v>1533.03</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -15534,10 +15605,60 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
+    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+    </row>
+    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J38:L38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EC179-0A1C-47D2-AFD9-192FFD8CB8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E0A76-573C-4183-B403-2CEAF5387356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Septie2025" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Noviem2025" sheetId="4" r:id="rId3"/>
     <sheet name="Diciem2025" sheetId="7" r:id="rId4"/>
     <sheet name="Ene2026" sheetId="8" r:id="rId5"/>
-    <sheet name="Presupuesto 2026" sheetId="9" r:id="rId6"/>
-    <sheet name="PresupV1" sheetId="11" r:id="rId7"/>
+    <sheet name="Feb2026" sheetId="12" r:id="rId6"/>
+    <sheet name="Presupuesto 2026" sheetId="9" r:id="rId7"/>
+    <sheet name="PresupV1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="175">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -519,6 +520,54 @@
   </si>
   <si>
     <t>Corte de cabello</t>
+  </si>
+  <si>
+    <t>Retiro (Q60 PortaTel, Q60 Cuader)</t>
+  </si>
+  <si>
+    <t>Mensualidad - Universidad Enero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burger King </t>
+  </si>
+  <si>
+    <t>Pantalla</t>
+  </si>
+  <si>
+    <t>Personales animes</t>
+  </si>
+  <si>
+    <t>Mouspad</t>
+  </si>
+  <si>
+    <t>Parqueo Plaza Varieta</t>
+  </si>
+  <si>
+    <t>Parqueo Décima Plaza</t>
+  </si>
+  <si>
+    <t>2da-15cena enero 2026</t>
+  </si>
+  <si>
+    <t>1ra-15cena febrero 2026</t>
+  </si>
+  <si>
+    <t>Coca y galletas (Granados)</t>
+  </si>
+  <si>
+    <t>Renta casa, enero 2026</t>
+  </si>
+  <si>
+    <t>Mollejas almuerzo</t>
+  </si>
+  <si>
+    <t>Super (Avenas, Jugo, Galleta, Espon)</t>
+  </si>
+  <si>
+    <t>Retiro (Gastos personales)</t>
+  </si>
+  <si>
+    <t>(Verduras, Cancha, Pastel)</t>
   </si>
 </sst>
 </file>
@@ -12461,10 +12510,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC196E7-8BBE-4BB1-B062-6F807BAF4D7C}">
-  <dimension ref="B2:Y112"/>
+  <dimension ref="B2:Y122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13047,7 +13096,7 @@
         <v>46028</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" ref="I17:I36" si="1">I16-F17</f>
+        <f t="shared" ref="I17:I46" si="1">I16-F17</f>
         <v>5145.57</v>
       </c>
       <c r="J17" s="5"/>
@@ -13737,10 +13786,19 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="20"/>
+      <c r="F37" s="6">
+        <v>100</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="9">
+        <v>46039</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="1"/>
+        <v>1702.5699999999997</v>
+      </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -13759,27 +13817,26 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B38" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="14">
-        <f>SUM(F4:F37)</f>
-        <v>4360</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="22">
-        <f>E4-F38</f>
-        <v>1802.5699999999997</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
+      <c r="F38" s="6">
+        <v>40</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="9">
+        <v>46041</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="1"/>
+        <v>1662.5699999999997</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -13795,23 +13852,3356 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B39" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="13">
-        <f>SUM(F38:I38)</f>
-        <v>6162.57</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="21"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6">
+        <v>1228</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H39" s="9">
+        <v>46041</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="1"/>
+        <v>434.56999999999971</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6">
+        <v>10</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="9">
+        <v>46042</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="1"/>
+        <v>424.56999999999971</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
+        <v>39</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" s="9">
+        <v>46044</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="1"/>
+        <v>385.56999999999971</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
+        <v>50</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" s="9">
+        <v>46052</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="1"/>
+        <v>335.56999999999971</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6">
+        <v>130</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" s="9">
+        <v>46052</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="1"/>
+        <v>205.56999999999971</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
+        <v>25</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" s="9">
+        <v>46052</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="1"/>
+        <v>180.56999999999971</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
+        <v>55</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H45" s="9">
+        <v>46052</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="1"/>
+        <v>125.56999999999971</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
+        <v>100</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="9">
+        <v>46052</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="1"/>
+        <v>25.569999999999709</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="14">
+        <f>SUM(F4:F47)</f>
+        <v>6137</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="22">
+        <f>E4-F48</f>
+        <v>25.569999999999709</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="13">
+        <f>SUM(F48:I48)</f>
+        <v>6162.57</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1">
+        <v>1533.03</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+    </row>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+    </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+    </row>
+    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+    </row>
+    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+    </row>
+    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+    </row>
+    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+    </row>
+    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+    </row>
+    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+    </row>
+    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+    </row>
+    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+    </row>
+    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+    </row>
+    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+    </row>
+    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+    </row>
+    <row r="113" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+    </row>
+    <row r="114" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+    </row>
+    <row r="115" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+    </row>
+    <row r="116" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+    </row>
+    <row r="117" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+    </row>
+    <row r="118" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+    </row>
+    <row r="119" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+    </row>
+    <row r="120" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+    </row>
+    <row r="121" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+    </row>
+    <row r="122" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J48:L48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F886ECA7-820D-4BE1-9837-EFDF67FD3DBB}">
+  <dimension ref="B2:Y94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13">
+        <v>1704.62</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="9">
+        <v>46017</v>
+      </c>
+      <c r="E4" s="14">
+        <f>SUM(B4:B7)</f>
+        <v>1779.62</v>
+      </c>
+      <c r="F4" s="8">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="9">
+        <v>46051</v>
+      </c>
+      <c r="I4" s="6">
+        <f>(E4-F4)</f>
+        <v>1749.62</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13">
+        <v>75</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9">
+        <v>46024</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="9">
+        <v>46051</v>
+      </c>
+      <c r="I5" s="6">
+        <f>I4-F5</f>
+        <v>1724.62</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="9">
+        <v>46024</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7">
+        <v>100</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="9">
+        <v>46052</v>
+      </c>
+      <c r="I6" s="6">
+        <f>I5-F6</f>
+        <v>1624.62</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="32">
+        <v>600</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="9">
+        <v>46052</v>
+      </c>
+      <c r="I7" s="6">
+        <f>I6-F7</f>
+        <v>1024.6199999999999</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="9">
+        <v>46053</v>
+      </c>
+      <c r="I8" s="6" t="e">
+        <f>#REF!-F8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>67</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="9">
+        <v>46054</v>
+      </c>
+      <c r="I9" s="6" t="e">
+        <f t="shared" ref="I9:I18" si="0">I8-F9</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>40</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="9">
+        <v>46055</v>
+      </c>
+      <c r="I10" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>100</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>120</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="14">
+        <f>SUM(F4:F19)</f>
+        <v>1107</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="22">
+        <f>E4-F20</f>
+        <v>672.61999999999989</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13">
+        <f>SUM(F20:I20)</f>
+        <v>1779.62</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>1533.03</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -13880,14 +17270,9 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1">
-        <v>1533.03</v>
-      </c>
+      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -15205,467 +18590,17 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="X95" s="1"/>
-      <c r="Y95" s="1"/>
-    </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
-    </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
-    </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
-    </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-    </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-    </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
-      <c r="Y101" s="1"/>
-    </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
-      <c r="Y102" s="1"/>
-    </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-      <c r="X103" s="1"/>
-      <c r="Y103" s="1"/>
-    </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
-      <c r="Y104" s="1"/>
-    </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-      <c r="X105" s="1"/>
-      <c r="Y105" s="1"/>
-    </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="1"/>
-      <c r="X106" s="1"/>
-      <c r="Y106" s="1"/>
-    </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
-      <c r="Y107" s="1"/>
-    </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="1"/>
-      <c r="X108" s="1"/>
-      <c r="Y108" s="1"/>
-    </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
-      <c r="Y109" s="1"/>
-    </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
-      <c r="Y110" s="1"/>
-    </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="1"/>
-      <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
-      <c r="W111" s="1"/>
-      <c r="X111" s="1"/>
-      <c r="Y111" s="1"/>
-    </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
-      <c r="V112" s="1"/>
-      <c r="W112" s="1"/>
-      <c r="X112" s="1"/>
-      <c r="Y112" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EDF303-38A9-4871-A42F-526357F8CC3F}">
   <dimension ref="B2:F8"/>
   <sheetViews>
@@ -15783,7 +18718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E24FAE-007C-474F-8432-FA016CF65CB4}">
   <dimension ref="B2:J17"/>
   <sheetViews>

--- a/Control Económico.xlsx
+++ b/Control Económico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genry Luis\Documents\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E0A76-573C-4183-B403-2CEAF5387356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B6259F-F638-4F85-9680-48D98A7121EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="191">
   <si>
     <t>CONTROL DE SUELDOS</t>
   </si>
@@ -569,6 +569,54 @@
   <si>
     <t>(Verduras, Cancha, Pastel)</t>
   </si>
+  <si>
+    <t>Tornillo - Física</t>
+  </si>
+  <si>
+    <t>Personaje Naruto</t>
+  </si>
+  <si>
+    <t>Gasolina para la semana</t>
+  </si>
+  <si>
+    <t>Retiro - Las brisas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibli y Guias </t>
+  </si>
+  <si>
+    <t>Retiro Gastos personales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tes </t>
+  </si>
+  <si>
+    <t>Uber de U a la casa</t>
+  </si>
+  <si>
+    <t>Instalación de Sopt Moto</t>
+  </si>
+  <si>
+    <t>Cancha sintética</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inversiones </t>
+  </si>
+  <si>
+    <t>Gasolina para fin de semana</t>
+  </si>
+  <si>
+    <t>Reparación de moto - Richard</t>
+  </si>
+  <si>
+    <t>Personajes One Piece</t>
+  </si>
+  <si>
+    <t>Piezas de Granjero</t>
+  </si>
+  <si>
+    <t>Mensualidad Universidad Febrero</t>
+  </si>
 </sst>
 </file>
 
@@ -719,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -785,6 +833,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9602,15 +9653,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -10622,11 +10673,11 @@
         <f>D4-E31</f>
         <v>2090.8999999999996</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
       <c r="L31" s="5"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -12532,16 +12583,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -14174,11 +14225,11 @@
         <f>E4-F48</f>
         <v>25.569999999999709</v>
       </c>
-      <c r="J48" s="34" t="s">
+      <c r="J48" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
       <c r="M48" s="5"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -16066,10 +16117,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F886ECA7-820D-4BE1-9837-EFDF67FD3DBB}">
-  <dimension ref="B2:Y94"/>
+  <dimension ref="B2:Y109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16088,16 +16139,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -16168,8 +16219,8 @@
         <v>46017</v>
       </c>
       <c r="E4" s="14">
-        <f>SUM(B4:B7)</f>
-        <v>1779.62</v>
+        <f>SUM(B4:B10)</f>
+        <v>3915.66</v>
       </c>
       <c r="F4" s="8">
         <v>30</v>
@@ -16182,7 +16233,7 @@
       </c>
       <c r="I4" s="6">
         <f>(E4-F4)</f>
-        <v>1749.62</v>
+        <v>3885.66</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -16223,7 +16274,7 @@
       </c>
       <c r="I5" s="6">
         <f>I4-F5</f>
-        <v>1724.62</v>
+        <v>3860.66</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -16264,7 +16315,7 @@
       </c>
       <c r="I6" s="6">
         <f>I5-F6</f>
-        <v>1624.62</v>
+        <v>3760.66</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -16284,13 +16335,15 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="2:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
-        <v>114</v>
+      <c r="B7" s="33">
+        <v>2136.04</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="9">
+        <v>46066</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="32">
         <v>600</v>
@@ -16303,7 +16356,7 @@
       </c>
       <c r="I7" s="6">
         <f>I6-F7</f>
-        <v>1024.6199999999999</v>
+        <v>3160.66</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -16323,7 +16376,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -16336,9 +16389,9 @@
       <c r="H8" s="9">
         <v>46053</v>
       </c>
-      <c r="I8" s="6" t="e">
-        <f>#REF!-F8</f>
-        <v>#REF!</v>
+      <c r="I8" s="6">
+        <f t="shared" ref="I8:I31" si="0">I7-F8</f>
+        <v>3135.66</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -16371,9 +16424,9 @@
       <c r="H9" s="9">
         <v>46054</v>
       </c>
-      <c r="I9" s="6" t="e">
-        <f t="shared" ref="I9:I18" si="0">I8-F9</f>
-        <v>#REF!</v>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>3068.66</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -16406,9 +16459,9 @@
       <c r="H10" s="9">
         <v>46055</v>
       </c>
-      <c r="I10" s="6" t="e">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>3028.66</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -16438,10 +16491,12 @@
       <c r="G11" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="6" t="e">
+      <c r="H11" s="9">
+        <v>46055</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>2928.66</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -16471,10 +16526,12 @@
       <c r="G12" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="6" t="e">
+      <c r="H12" s="9">
+        <v>46057</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>2808.66</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -16498,12 +16555,18 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="6" t="e">
+      <c r="F13" s="6">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="9">
+        <v>46057</v>
+      </c>
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>2790.66</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -16527,12 +16590,18 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="6" t="e">
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="9">
+        <v>46057</v>
+      </c>
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>2740.66</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -16556,12 +16625,18 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="6" t="e">
+      <c r="F15" s="6">
+        <v>50</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="9">
+        <v>46060</v>
+      </c>
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>2690.66</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -16585,12 +16660,18 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="6" t="e">
+      <c r="F16" s="6">
+        <v>50</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="9">
+        <v>46060</v>
+      </c>
+      <c r="I16" s="6">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>2640.66</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -16614,12 +16695,18 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="6" t="e">
+      <c r="F17" s="6">
+        <v>40</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="9">
+        <v>46062</v>
+      </c>
+      <c r="I17" s="6">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>2600.66</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -16643,12 +16730,18 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="6" t="e">
+      <c r="F18" s="6">
+        <v>206</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="9">
+        <v>46062</v>
+      </c>
+      <c r="I18" s="6">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>2394.66</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -16672,10 +16765,19 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="20"/>
+      <c r="F19" s="6">
+        <v>35</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="9">
+        <v>46062</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>2359.66</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -16694,27 +16796,26 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="14">
-        <f>SUM(F4:F19)</f>
-        <v>1107</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="22">
-        <f>E4-F20</f>
-        <v>672.61999999999989</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="F20" s="6">
+        <v>25</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="9">
+        <v>46062</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>2334.66</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -16730,19 +16831,23 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="13">
-        <f>SUM(F20:I20)</f>
-        <v>1779.62</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="21"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>30</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="9">
+        <v>46065</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>2304.66</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -16761,17 +16866,27 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <v>20</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="9">
+        <v>46065</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>2284.66</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -16786,17 +16901,27 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>40</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" s="9">
+        <v>46065</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>2244.66</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -16811,22 +16936,27 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1">
-        <v>1533.03</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>41</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="9">
+        <v>46065</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="0"/>
+        <v>2203.66</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -16841,17 +16971,27 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="9">
+        <v>46066</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>2193.16</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -16866,17 +17006,27 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <v>20</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="9">
+        <v>46067</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="0"/>
+        <v>2173.16</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -16891,17 +17041,27 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <v>100</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="9">
+        <v>46067</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>2073.16</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -16916,17 +17076,27 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
+        <v>117</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="9">
+        <v>46068</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="0"/>
+        <v>1956.1599999999999</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -16941,17 +17111,27 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <v>20</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="9">
+        <v>46068</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="0"/>
+        <v>1936.1599999999999</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -16966,17 +17146,27 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
+        <v>200</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="9">
+        <v>46068</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="0"/>
+        <v>1736.1599999999999</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -16991,17 +17181,27 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6">
+        <v>1153</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H31" s="9">
+        <v>46069</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="0"/>
+        <v>583.15999999999985</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -17016,17 +17216,18 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -17041,17 +17242,18 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -17066,17 +17268,18 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -17091,17 +17294,28 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="B35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="14">
+        <f>SUM(F4:F34)</f>
+        <v>3332.5</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="22">
+        <f>E4-F35</f>
+        <v>583.15999999999985</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="5"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -17116,17 +17330,23 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="B36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="13">
+        <f>SUM(F35:I35)</f>
+        <v>3915.66</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -17195,9 +17415,14 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="1">
+        <v>1533.03</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -17245,6 +17470,9 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -18590,10 +18818,385 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+    </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+    </row>
+    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+    </row>
+    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+    </row>
+    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+    </row>
+    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+    </row>
+    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+    </row>
+    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+    </row>
+    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+    </row>
+    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J35:L35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -18608,7 +19211,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" customWidth="1"/>
     <col min="2" max="3" width="24.1796875" customWidth="1"/>
@@ -18617,11 +19220,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="26" t="s">
@@ -18726,7 +19329,7 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" customWidth="1"/>
@@ -18738,15 +19341,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="2:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="26" t="s">
